--- a/nlpy/fasttext_files/sword_test.xlsx
+++ b/nlpy/fasttext_files/sword_test.xlsx
@@ -452,16 +452,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3622</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>지금 처럼 계속 동족 대결 길 나가 ᆫ다면 무자비 징벌 면 못하</t>
+          <t>론설 우리 털끝 만큼 라도 건드리 려는 자 누구 든 어디 든 절대로 무사 없 경고</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -472,16 +472,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>256</v>
+        <v>356</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>2664</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>미국 이미 승리 종착점 거의 다 닫 우리 전진 막 되돌리 없 명심 부질없 반 공화국 대결 소동 걷어치우</t>
+          <t>내외 호전 광 위험천만 각종 북침 핵전쟁 연습 책동 영원히 종식 시키 투쟁 더욱 강력히 전개 나가 자</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -492,16 +492,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3117</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>부쉬 행정부 대조선 적대 시 정책 포기 우리 공화국 악 축 핵선제공격 대상 규정 다면 조미 사이 핵문제 오늘 같이 첨예 국면 이르</t>
+          <t>북남 공동 선언 기치 더욱 높이 들 우리 민족 끼리 리념 밑 민족 자주 반전 평화 통일 애국 대 공조 확고히 실현 ᆷ 으로써 조국 통일 위업 반드시 성취</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -512,16 +512,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>604</v>
+        <v>52</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>13815</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>동아시아 평화 파괴 저 지배 권 안 넣 으려는 미국 기도 날로 위험 단계 이르 오늘 엄중 사태 우리 결코 방관 시 없</t>
+          <t>미국 시대착오 세계 제패 야망 사로잡히 폭제 핵몽둥이 마구 휘두르 다가 비참 파멸 면 못하 똑바로 알 함부로 날뛰 말</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -532,16 +532,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2145</t>
+          <t>2144</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>우리 핵보유 미국 가증 핵위협 전쟁 위험 대처 나라 최 고리 익 수호 취하 자위적 조치 로서 국제법 요구 견지 철저히 합법</t>
+          <t>조선반도 핵문제 사 생 시키 근원 모르 우리 왜 핵보유 는지 초보 상식 없 박근혜 역도 동방 핵강국 우뚝 솟 우리 전략 지위 훼손 보 려고 갖은 악담 질 대 그것 죽 가 정신병자 잠꼬대 수작 질 로서 수치 스럽 파멸 더욱 촉진 뿐</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -552,16 +552,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>125</v>
+        <v>587</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>8064</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>이것 철두철미 정정당당하 자위 권 행사 평화 조치</t>
+          <t>자위적 국방력 강화 최대 힘 넣 불패 사회주의 군사 강국 위용 높이 떨치 선군 혁명 총 진군 이룩 가장 긍지 높 성과</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -572,16 +572,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>347</v>
+        <v>733</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2642</t>
+          <t>9273</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>이것 평화 위성 발사 걸 감행 적대 세력 악랄 책동 으로부터 민족 자주권 최고리익 수호 자위적 애국 애족 조치</t>
+          <t>세기 표본 공장 희천련하 기계 종합 공장 CNC 기계 바다 펼치</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -592,16 +592,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>339</v>
+        <v>451</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>경애 김정은 동지 께서 오늘 발사 탄도탄 시험 결과 우리 핵공격 능력 완벽 보유 군사 대국 전렬 당당히 들어서 현실 증명 긍지 자부심 넘치 말씀 시</t>
+          <t>우리 핵탄두 폭발 시험 미국 비롯하 적대 세력 가증 핵전쟁 위협 제재 소동 실제 대응 조치 로서 누구 든 감히 우리 건드리 ᆫ다면 무자비 맞받아치 준비 가 여 준엄 선언 였</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -612,16 +612,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>463</v>
+        <v>634</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3236</t>
+          <t>15018</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>날강도 미제 우리 군대 인민 보복 일념 하늘 끝 치 닿</t>
+          <t>국제 사회 한결같이 인정 듯이 미국 추종 세력 광기 어리 합동 군사 연습 오늘날 조선반도 언제 어느 순간 폭발 ᆯ지 모르 거대 화약고 조선 반도 주변 일대 미제 침략군 전용 사격 장 세계 전략 무기 전시장 화하</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,16 +632,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>415</v>
+        <v>536</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3004</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>북남 관계 지금 같이 파국 상태 처하 남조선 현 보수 당국 우리 공화국 반대 핵소동 특 대형 모략 극 대화 협력 모조리 차단 원칙 고수 운운 조선반도 대결 상태 최대 격화 시키</t>
+          <t>보도 듣 순간 저 모르 만세</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -652,16 +652,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>680</v>
+        <v>55</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2223</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>조선반도 비핵 실현 나라 자주 권 철저히 담보 년 핵무기 전파 방지 조약 가입</t>
+          <t>남조선 핵우산 제공 떠들 우리 더러 핵페기하 라고 손들 나앉 으라는 소리 나 다름없</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -672,16 +672,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>563</v>
+        <v>162</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4070</t>
+          <t>703</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>가깝 실례 지나 월 미제 괴뢰 호전 광 수십만 병력 최 신식 타격 수단 동원 감행 북침 핵시험 전쟁 키 리졸브 독수리 합동 군사 연습 실전 번지 전적 우리 침략 세력 어떻 군사 도발 단호히 짓 부시 있 강력 전쟁 억제력</t>
+          <t>현실 미국 강경 보수 세력 남조선 호전 세력 시대 변화 불구 구태의연 대결 전쟁 의하 반 공화국 압살 추구 으며 조선반도 평화 안정 파괴 핵전쟁 위험 몰아오 장본인 다르 ᆷ 자신 낱낱이 고발</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -692,16 +692,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>292</v>
+        <v>85</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>347</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>조선인민군 창건 돐을 맞 으며 건 군 사상 최대 규모 진행 조선인민군 군종 합동 타격 시위 분별 없이 날뛰 미제 추종 세력 감히 움쩍 ᆫ다면 상상 없 선제 타격 침략 본거지 초토 버리 백두산 총대 징벌 불 소나기</t>
+          <t>조선반도 핵문제 사 생 시키 조미 핵대결 전 폭발 단계 끊임없이 추동 장본인 미국 초래 모든 후 과 책임지</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -712,16 +712,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>158</v>
+        <v>380</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>2901</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>관련 내외 여론 남조선 감행 대 규모 북침 합동 군사 연습 조선반도 정세 북남 관계 발전 미치 부정 후 과 심각하 우려 금 못하</t>
+          <t>핵무기 휘두르 달려들 침략 세력 오직 핵맞서 싸우 ᆫ다는 력사 진리</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -732,16 +732,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>34</v>
+        <v>730</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>10324</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>맥 빠지 소리 늘어놓 으나 세계 핵전문가 북 이미 월 상온 핵융합 반응 성공 월 핵융합 반응 장치 설계 제작 으며 년 월 플라즈마 집 초 방식 핵융합 기술 개발 언급 만큼 이번 수소탄 시험 완전 성공 명실상부 핵무기 보유국 수소탄 보유국 평가</t>
+          <t>속도 조절 론 로 골 강박 북남 관계 저 대조선 제재 압박 정책 복종 시키 려고 각 방 책동</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -752,16 +752,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>249</v>
+        <v>472</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>3342</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>이것 바로 조선 인민군대 인민 립 장 이고 대응 자세</t>
+          <t>군사연습 임의 시각 우리 공화국 선제공격 극히 위험천만 예비 전쟁 핵시험 전쟁 더 론 여지 없</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -772,16 +772,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>573</v>
+        <v>478</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4734</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>선군정치 미국 자랑 최 첨단 군사 장비 무용지물 만들 놓 핵우산 미싸 일 방위 체계 물거품 으며 화약 내 나 전쟁 위협 소동 째지 북 신세 만들 버리</t>
+          <t>괴뢰 호전 광 미 핵전략 자산 조선 반도 정례 배치 니 뭐 니 군사 대결 소동 미치 날뛰 조선반도 동북아시아 세계 열 핵전쟁 터 만들 려는 용납 못 민족 반역 행위</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -792,16 +792,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>324</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2351</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>우리 핵무력 철두철미 미국 핵위협 억제 수단 결코 동족 공갈 해치 수단</t>
+          <t>미국 다음 번 핵전쟁 계획 남조선 전초 기지</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -812,16 +812,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>520</v>
+        <v>735</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3796</t>
+          <t>2133</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>북남 관계 나날이 악화 일로 치닫 조선반도 정세 일촉즉발 초 긴장 상태 처하 미국 일본 상전 짝 여 우리 손 핵보검 빼앗 보 허황 망상 미치 듯이 날뛰 괴뢰 당국 추악 반 역적 망 동 필연 산물</t>
+          <t>제국주의자 인민 자주 권리 참되 삶 철저히 보장 우리 공화국 인권 문제 끄 들 우리 존엄 자주 권 참 없 모독 훼손 부당 이중 기준 적용 극치</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -832,16 +832,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>미국 남조선 괴뢰 북침 핵전쟁 도발 책동 계속 핵억제력 중추 나라 군 력 백방 강화 조선반도 평화 믿 음직 수호 경제 강국 건설 힘차 다그치 나가 려는 우리 억척 불변 신념 의지</t>
+          <t>이것 바로 조선 인민군대 인민 립 장 이고 대응 자세</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -852,16 +852,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>223</v>
+        <v>407</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>우리 전쟁 반대</t>
+          <t>미국 우리 사소 오판 저 종국 파멸 이어지 ᆫ다는 똑똑히 알</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -872,16 +872,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>미국 시대착오 세계 제패 야망 사로잡히 폭제 핵몽둥이 마구 휘두르 다가 비참 파멸 면 못하 똑바로 알 함부로 날뛰 말</t>
+          <t>조선반도 비핵 위대 수령 님 유훈</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -892,16 +892,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>458</v>
+        <v>718</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>15027</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>일방 타방 적대 시 평등 관계 마주 앉 진정 대화 이루어지 있 으며 서로 관심사 모든 문제 해결 가능 있</t>
+          <t>동족 대결 환장 특 역도 본색 여지없이 드러나</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -912,16 +912,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>356</v>
+        <v>698</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>내외 호전 광 위험천만 각종 북침 핵전쟁 연습 책동 영원히 종식 시키 투쟁 더욱 강력히 전개 나가 자</t>
+          <t>공화국 이 유엔 가입 수많 나라 외교 관계 수립 음 불구 미국 의연 조선 국제 사회 안 공존 상대 가 제거 대상 여기</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -932,16 +932,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>663</v>
+        <v>519</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>15026</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>세계 핵렬강 으로서 조선민주주의인민공화국 지위 최종 불 가역</t>
+          <t>세계 군사 강국 핵강국 우리 공화국 전략 지위 대세 흐름 바로 대조선 적대 시 정책 철회 결단 내리 미국 처지 알맞 처방</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -952,16 +952,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>543</v>
+        <v>172</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3891</t>
+          <t>816</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>공화국 이미 당당 핵보유국 솟아오르 으며 미국 우리 원자탄 위협 시대 영원히 지나가</t>
+          <t>공화국 이번 핵탄두 폭발 시험 미국 위수 적대 세력 날 가증 핵위협 공갈 로부터 나라 자주 권 민족 생존 권 철저히 수호 조선반도 평화 안전 믿 음직 담보 정정당당하 자위 조치 라고 주장</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -972,16 +972,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>608</v>
+        <v>573</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>14144</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>미국 우리 공화국 반대 선제 타격 무모 불장난 책동 광분 ᆯ수록 강경 히 대처 려는 우리 군대 인민 의지 더욱 확고</t>
+          <t>선군정치 미국 자랑 최 첨단 군사 장비 무용지물 만들 놓 핵우산 미싸 일 방위 체계 물거품 으며 화약 내 나 전쟁 위협 소동 째지 북 신세 만들 버리</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -992,16 +992,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>417</v>
+        <v>675</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>291</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>미국 저 침략 책동 정면 맞서 우리 공화국 압살 목적 밑 지나 세기 년대 남조선 핵무기 끌어들이 반세기 이상 우리 핵위협 공갈 미치 날뛰 였</t>
+          <t>그것 지금 미국 핵무기 선제 사용 교리 새롭 작성 핵무기 마구 사용 책동 잘 아 있</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1012,16 +1012,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2170</t>
+          <t>2265</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>경애 최 고령 도 자 동지 국방 공업 령 도사 몸소 국방 공업 전선 총사령관 정치 위원 되시여 핵무력 중추 자위적 국방력 질량 확대 강화 투쟁 진두 이끌 오 시 불멸 력사 빛나</t>
+          <t>미제 극악 무도 대조선 적대 시 정책 핵위협 공갈 철회 한 우리 핵무력 고도 최고 수뇌부 결심 임의 시각 임의 장소 다발 련 발 진행 여 최후 승전 포 반드시 울리 세계 똑똑히</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1032,16 +1032,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>13</v>
+        <v>744</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>6252</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>우리 공화국 미국 핵선제공격 기도 현 미 행정부 시기 오 더욱 로골화되</t>
+          <t>올해 투쟁 우리 조국 민족 존엄 위용 떨치 데 서 획기 의의 가지 투쟁 강성대국 건설 결정 돌파구 열 놓 매우 책임 투쟁</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1052,16 +1052,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>340</v>
+        <v>509</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>경애 김정은 동지 께서 우리 미국 극악 무도 핵위협 공갈 도리 여 우리 핵공격 능력 시시각각 강화 결과 초래 시 미국 아무리 부인 어도 미 본토 태평양 작전 지대 이제 우리 손아귀 확실 쥐이 말씀 시</t>
+          <t>미국 강력 핵타격 수단 보유 조선 경고 심 중 히 받아들이</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1072,16 +1072,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>636</v>
+        <v>260</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>15018</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>우리 전쟁 억제력 자기 중대 사명 책임 자신감 공세 행동 계속 보이</t>
+          <t>우리 차 보복 대응 타격 핵무기 나 로케트 전략 무력 동원 필요 없</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1092,16 +1092,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>333</v>
+        <v>200</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>세계 가장 불 안정 열 점 지대 조선반도 오늘 평화 유지 여 오 우리 처럼 미국 날 악랄 침략 전쟁 책동 대처 자위적 핵억제력 강화 오 덕분</t>
+          <t>조선반도 새 전쟁 발발 경우 그것 불피코 전략 리 해 관계 얽히 나라 포함 세계 넓 확대</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1112,16 +1112,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1637</t>
+          <t>2642</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>조선반도 정세 세계 열 핵전쟁 발발 문 어구 놓이 상태 불구 미국 계속 핵전쟁 연습 소동 광란 벌리</t>
+          <t>우리 공화국 평화 위성 발사 관련 유엔 안전 보장 리 사회 부당 처사 대처 자위적 핵억제력 백방 강화 나가 선언 실천 조치 취하</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1132,16 +1132,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>637</v>
+        <v>701</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>15019</t>
+          <t>2271</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>미국 대통령 이번 계획 발표 첫 시작 불과 명백히 영국 오스트랄 리아 외 다른 동맹국 념두 두 으로서 오커스 확대 의미</t>
+          <t>미국 서방 나라 저 민주주의 인권 기준 운동 성원 국 강요 데 서 유엔 안전 보장 리 사회 도용</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1152,16 +1152,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>708</v>
+        <v>513</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3458</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>괴뢰 외세 공조 우리 어쩌 보 려는 어리석 망상</t>
+          <t>일부 로동신문 개인 필명 론평 자기 앞장서 강행 오 대조선 정책 의혹 제기 전환 요구 조선 국가 핵무력 완성 어떤 힘 무엇 으로써 되돌리 없 강력 믿 음직 전쟁 억제력 보유 라고 주장</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1172,16 +1172,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>772</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>특히 올해 월 핵무기 정수 라고 있 수소탄 시험 완전 성공 ᆷ 으로써 명실 공히 세계 핵강국 으로서 위용 남김없이 떨치 였</t>
+          <t>미국 우리 절대로 평화 공존 려 우리 공화국 완전 무장 해제 시키 려고 기도 조건 조선민주주의인민공화국 외무성 정부 위임 이러 회담 더 필요 흥미 기대 없 밝히 미국 핵선제공격 막 조선반도 평화 안정 보장 정당방위 수단 으로서 핵억제력 유지 계속 강화 나가 길 밖에 다른 선택 여지 없 대외 천명</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1192,16 +1192,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>313</v>
+        <v>665</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>15026</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>자력 자강 힘 강력 핵무기고 다종 다양 핵운반 수단 히 갖추 명실상부 핵강국 솟아오르 조선민주주의인민공화국 핵무력 대상 려 진짜 적 바로 핵전쟁 자체 ᆸ니다</t>
+          <t>기회 조선민주주의인민공화국 핵무기 전파 방지 조약 제 조 밝히 탈퇴 절차 년 전 벌써 상기 조약 합법 탈퇴 ᆷ 으로써 어떤 조약 상 의무 로부터 자유 롭 G 외무상 다시 한번 정중히 상기 시키 바</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1212,16 +1212,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>548</v>
+        <v>358</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>2689</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>김정은 령 도자 께서 미국 행위 대조선 적대 행위 단순 위협 공갈 단계 넘 무모 행동 단계 들어서 다시금 보이 시 이것 단순히 조선 강경 립 장 대응 무력시위 가 조선반도 기어이 핵전쟁 일으키 최후통첩 라고 말씀 시</t>
+          <t>그런데 전쟁광 신자 저 대책 없 객기 저 스스로 조선 핵보유 당위 부각 시키 더없이 훌륭 선전 아직 깨닫 못하</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1232,16 +1232,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>485</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>우리 이미 부쉬 행정부 악랄 적대 행위 대처 나라 자주 권 민족 존엄 수호 필요 모든 대응 조치 다 강구 나가 라고 선포 바 있</t>
+          <t>미제 핵공갈 무자비 핵공격 침략 전쟁 정의 전면 전쟁</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1252,16 +1252,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3117</t>
+          <t>336</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>명백히 건대 우리 존엄 우리 식 사상 제도 전면 부인 위협 미국 강경 정책 언제나 초 강경 대응</t>
+          <t>우리 노리 미국 로 골 핵무기 개발 책동 우리 하여금 대응 방위 력 강화 더 크 힘 넣 없</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1272,16 +1272,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>492</v>
+        <v>359</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3622</t>
+          <t>2689</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>리명박패 당 우리 공화국 자위 지하 핵시험 대량 살상 무기 확산 방지 구상 전면 참가 구실 삼 언어도단</t>
+          <t>미국 후과 놓 숙고</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1292,16 +1292,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>654</v>
+        <v>120</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>15023</t>
+          <t>531</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>경애 김정은 동지 께서 핵에는 핵정면 대결 정면 대결 대답 우리 당 공화국 정부 대 대응 투쟁 방침 자위 력 강화 발전 실천 성과 받들 나가 우리 국방 학력 량 견지 절대 사명 보 분 라고 시 공화국 핵전략 무력 강화 더욱 힘 있 추진 나가 데 서 나서 중대 전략 과업 제시 시</t>
+          <t>반세기 이상 걸치 미국 끈질기 핵위협 공갈 끝장내 일단 전쟁 터지 침략 본거지 무자비 징벌 자는 우리 핵무력 강화 목적 우리 인민 핵강국 안전 사회주의 부귀영화 마음껏 누리 자는 핵억제력 사명</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1312,16 +1312,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>681</v>
+        <v>608</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3071</t>
+          <t>14144</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>우리 위반 유엔 안전 보장 리 사회 결의 ᆫ다면 그것 미국 대조선 적대 시 정책 산물 로서 우리 공화국 자주 권 민족 안전 란폭 침해 평화 위성 발사 권리 마저 빼앗 으려는 날강도 요구 일관</t>
+          <t>미국 우리 공화국 반대 선제 타격 무모 불장난 책동 광분 ᆯ수록 강경 히 대처 려는 우리 군대 인민 의지 더욱 확고</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1332,16 +1332,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>627</v>
+        <v>434</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>15015</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>전술 타 도미 싸 핵전투 부 모의 시험 용 전투 부 장착</t>
+          <t>월 진행 조선민주주의인민공화국 최고인민회의 제 기 저 차 회의 국가 방위력 중추 이루 핵무력 정책 법화 여 핵보유국 으로서 우리 국가 지위 불 가역 더욱 공고히 다지</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1352,16 +1352,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>664</v>
+        <v>419</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>15026</t>
+          <t>3026</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>우리 G 추호 관심 가지 만일 조선민주주의인민공화국 자주권 근본 리 익 침해 려는 어떤 행동 기도 보이 경우 강력 대응 철저히 불허 명백히</t>
+          <t>우리 결심 미국 전면 대결 전 세기 잇 오 미국 대조선 적대 시 정책 전횡 종지부 찍 나라 민족 자주 권 안전 평화 번영 이룩 정의 롭 성스럽 력사 위업</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1372,16 +1372,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>251</v>
+        <v>425</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>조선 인민군대 인민 미국 핵전쟁 도발 책동 예리 주시 으며 기어이 핵대결 길 나가 ᆫ다면 백 묵 죄 통 털 깨끗이 결산 야 말</t>
+          <t>미국 이것 또다시 도발 걸 들 경우 대처 적 상상 힘 든 다음 단계 조치 다 준비 여</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1392,16 +1392,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>607</v>
+        <v>20</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>14144</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>미국 남조선 호전 세력 이러 군사 움직임 불 안정 상태 빠지 조선반도 평화 안정 파괴 핵전쟁 위험 극도 고조 시키 도발 행위 더 론 여지 없</t>
+          <t>미국 괴뢰패 당 우리 핵선제 타격 기도 로골 조건 핵억제력 질량 강화 나가 ᆫ다는 누구 나 명백</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1412,16 +1412,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>457</v>
+        <v>110</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>485</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>미국 대조선 적대 시 정책 자체 부당 시대착오 므로 오직 무 조건 먼저 철회 여야</t>
+          <t>미국 핵선제공격 대상 첫 번 째 목표 바로 조선</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1432,16 +1432,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>148</v>
+        <v>323</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>2351</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>로 씨 야 원동 김일성 김정일 주의 연구 협회 학술 서기 아나스따시야 올레고브나 바란니꼬바 최근 조선민주주의인민공화국 핵계획 과연 위험 ᆫ가 제목 소론 문 발표</t>
+          <t>우리 미국 핵전쟁 도발 책동 으로부터 조선 반도 평화 수호 민족 자주 권 지키 수단 으로서 핵보유</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1452,16 +1452,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>2271</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>강력 핵억제력 우에 평화 부강 번영 으며 인민 행복 삶 있</t>
+          <t>우리 핵무력 강화 결정 미국 항시 핵위협 으로부터 자신 방위 정당하 자위 조치</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1472,16 +1472,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>14988</t>
+          <t>15023</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>방대 핵전략 수단 투입 전제 적대 세력 반 공화국 전쟁 기도 수행력 량 전쟁 양상 특수 우리 하여금 전군 전면 전쟁 준비 함께 우선 핵무력 질량 강화 필수 제기</t>
+          <t>조선민주주의인민공화국 전략 무력 초 강력 절대 힘 실체 핵전쟁 참화 방지 적 각 양각 태 위험천만 침략 가능 억제 강력 력 량 정의 평화 수호 보검으 위력 끊임없이 멈추 ᆷ 없이 계속 발전 시키 나가 려는 우리 당 공화국 정부 불변 전략 로 선 방침 의하 나라 자위적 핵전쟁 억제력 가속 급진전 여 가</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1492,16 +1492,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>550</v>
+        <v>95</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>391</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>그이 께서 조선 군대 미국 침략 책동 결코 미국 핵공갈 무자비 핵공격 대답 라고 말씀 시</t>
+          <t>월 남조선 작전 지대 안 비행장 무력 시키 목적 진행 전술 핵탄두 탑재 모의 탄도미싸 발사 훈련 핵탄두 운용 관련 전반 체계 안정 검증 으며 월 일 월 진행 여러 종류 전술 타 도미 싸이 발사 훈련 해당 설정 표적 상공 폭발 직접 정밀 및 사 포탄 타격 배합 명중 ᆷ 으로써 우리 무기 체계 정확 위력 확증</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1512,16 +1512,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>538</v>
+        <v>590</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3890</t>
+          <t>8064</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>가 터지 나오</t>
+          <t>우리 주체 선 군사 상과 선 당 혁명 변함없 지도 지침 틀 쥐 인민군대 핵심 자위적 국방력 강화 데 계속 크 힘 넣</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1532,16 +1532,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>1473</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>전술 핵무기 남조선 끌어들이 최신 형 소형 핵폭탄 개발 려는 미국 시도 우리 뿐 전략 적수 목표 으로서 조선 반도 정세 더욱 긴장 시키 치렬 군비 경쟁 초래</t>
+          <t>남조선 스스로 목표 판</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1552,16 +1552,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>235</v>
+        <v>424</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1637</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>민주조선 조선 군대 인민 자위적 핵전쟁 억제력 더욱 강화 나가 ᆷ 으로써 인류 세계 지배 야망 실현 희생물 삼 으려는 미국 극악 범죄 기도 철저히 짓 부시 버리 라고 강조</t>
+          <t>미국 년례 니 뭐 니 평양 점령 노리 각종 핵타격 수단 총동원 핵전쟁 연습 끊임없이 벌리 놓 조건 대처 우리 훈련 보다 다종 핵억제력 각 중장거리 목표 각 타격 력 활용 여러 가지 형태 훈련 다 포함</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1572,16 +1572,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>193</v>
+        <v>506</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>미국 대조선 적대 시 정책 핵전쟁 책동 우리 나라 핵보유국 다음 더욱 교활 발악 감행</t>
+          <t>미국 남조선 괴뢰 조선민주주의인민공화국 핵선제공격 평양 점령 노리 을지 프리덤 가디언 합동 군사 연습 감행</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1592,16 +1592,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>525</v>
+        <v>406</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3822</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>론설 우리 털끝 만큼 라도 건드리 려는 자 누구 든 어디 든 절대로 무사 없 경고</t>
+          <t>공화국 자주 권 행사 령 역 단 점 불꽃 라도 떨어지 ᆫ다면 침략 도발 본거지 생존 불 가능 초토</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1612,16 +1612,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>610</v>
+        <v>502</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>14144</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>미 호전 세력 기어이 전쟁 추구 ᆫ다면 우리 군대 인민 선군 위력 다지 오 힘 정신력 총 폭발 시키 침략자 섬멸 타격 안기 야 말</t>
+          <t>우리 정의 절대 힘 틀어쥐 ᆷ 으로써 조선 반도 포함 동북아시아 전략 구도 완전히 변화 침략 전쟁 불의 악 총 본산 미국 본토 자체 안전 담보 없 오늘 현실</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1632,16 +1632,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>387</v>
+        <v>741</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2904</t>
+          <t>10324</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>우리 미국 핵시험 조선반도 비핵 대화 협상 방법 평화 실현 려는 우리 립 장 변하 ᆷ 없</t>
+          <t>판문점 수뇌 상봉 회담</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1652,16 +1652,16 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>14</v>
+        <v>646</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>15019</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>이 전 행정부 시기 진행 여 오 우리 모든 대화 협상 중단 버리 초 발표 년두교서 우리 나라 악 축 규정 으며 해 월 핵선제공격 대상 명단 우리 나라 올려놓</t>
+          <t>미국 추종 세력 의하 나날이 악화 아시아 태평양 안보 환경 조선민주주의인민공화국 핵전쟁 억제력 강화 야말로 평화 안정 힘 균형 보장 근본 담보 ᆫ다는 실증</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1672,16 +1672,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>528</v>
+        <v>300</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3854</t>
+          <t>2271</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>미제 남조선 괴뢰 저 무모 군사 도발 얼마나 엄청나 대가 치르 는가 머지않 뼈저리 통감</t>
+          <t>공화국 정부 핵억제력 미국 핵위협 책동 저지 시키 세계 비 핵실현 노력 오 으며 앞 계속 노력</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1692,16 +1692,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>352</v>
+        <v>185</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>993</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CNN 방송 NBC 방송 김정은 령 도자 께서 조선 평화 사랑 책임 있 핵강국 라고 시 침략 적대 세력 나라 자주권 리익 침해 한 핵무기 사용 라고 선언 시 데 언급</t>
+          <t>미국 우리 핵으로 위협 공갈 패권 야망 추구 시대 영원히 지나가</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1712,16 +1712,16 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>641</v>
+        <v>21</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>15019</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>영국 수상 로씨야 비 법 우크라이나 침공 중국 증대 강권 이란 북조선 불 안정 조성 행위 위험 무 질서 분렬 세계 만들 위협</t>
+          <t>미국 남조선 괴뢰 북침 핵전쟁 도발 책동 계속 핵억제력 중추 나라 군 력 백방 강화 조선반도 평화 믿 음직 수호 경제 강국 건설 힘차 다그치 나가 려는 우리 억척 불변 신념 의지</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1732,16 +1732,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>325</v>
+        <v>377</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2351</t>
+          <t>2901</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>우리 핵무력 미국 핵위협 공갈 종식 시키 평화 민족 안녕 수호 민족 공동 보검</t>
+          <t>최근 조선 국방 공업 부문 짧 기간 초 정밀 위력한 전술 유도 무기 체계 개발 시험 발사 성공 사변 성과 이룩</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1752,16 +1752,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>716</v>
+        <v>56</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>15027</t>
+          <t>224</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>동족 대결 환장 특 역도 본색 여지없이 드러나</t>
+          <t>날로 로 골 미국 핵전쟁 책동 대처 우리 자위적 핵억제력 갖추 천만 번 정당하</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1772,16 +1772,16 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>154</v>
+        <v>477</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>미국 호전 세력 새롭 핵무기 비롯하 첨단 무기 개발 발광 달라붙 조건 우리 대응 대책 세우 나가 없</t>
+          <t>미국 등 업 파멸 모면 려는 오산</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1792,16 +1792,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>554</v>
+        <v>280</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3965</t>
+          <t>2170</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>통보 문 미국 대조선 적대 행위 일상 였 듯이 대처 우리 자위적 병진 로 선 관철 사업 일상 되 으며 미국 적대 시 정책 핵위협 계속 병 진로 선 일관 틀어쥐 자위적 핵억제력 강화 조치 다발 련 발 취하 나가 우리 원칙 적립 장 강조</t>
+          <t>군수 공업 부문 국방 과학 기술 발전 시키 국방 공업 주체 현대 과학 수준 더욱 높이 군자리 혁명 정신 발휘 적 완전히 제압 있 우리 식 다양 군사 타격 수단 더 많이 개발 생산 ᆸ니다</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1812,16 +1812,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>511</v>
+        <v>43</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>내외 반 통일 무리 아무리 최후 발악 어도 우리 최상 경지 오르 자위적 핵억제력 일심 단결 위력 조선반도 평화 안전 확고히 담보 나가 오 겨레 념 원 지향 대로 자주 통일 대 통로 기어이 열 나가</t>
+          <t>우리 핵무력 소형 표준 규격 수소탄 포함 각종 핵탄 고도 정밀 최첨단핵 타격 수단 그쯘히 갖추 막강 위력 당당히 떨치 으며</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1832,16 +1832,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>429</v>
+        <v>8</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3117</t>
+          <t>67</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>조미 사이 핵문제 대화 평화 방법 해결 려는 우리 원칙 적립 장 일관</t>
+          <t>조선반도 비 핵우리 공화국 정부 시종일관 립 장</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1852,16 +1852,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>미제 남조선 괴뢰 격노 우리 군대 섬멸 타격 피하 방도 오직 하나 우리 존엄 안전 건드리 자중 자숙 데 우리 경고 새겨듣 함부로 날뛰 말</t>
+          <t>리명박 우리 핵억제력 강화 조치 함부로 거 든 현 사태 본질 조선반도 평화 안전 누구 의하 지키 는지 모르 천치 이나 있 얼빠지 소리</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1872,16 +1872,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>155</v>
+        <v>470</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>3316</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>선택 권 미국</t>
+          <t>북 전쟁 억제력 우리 이남 민중 위협 공격 침략자 무자비 철 추 내리 보검 사랑 조국 강토 동포 형제 지키 철 방패</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1892,16 +1892,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>265</v>
+        <v>93</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>391</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>우리 당 전략 핵무력 건설 구상 월 일 단행 대륙 간 탄도 로케트 장착 용 수소탄 시험 완전 성공 우리 조국 세계 핵강국 전렬 당당히 올리 세우 미제 핵공갈 력사 종지부 찍 있 믿 음직 군사 담보 마련 승리 대 승리</t>
+          <t>훈련 목적 전술 핵탄두 반출 및 운반 작전 시 신속 안전 운용 취급 질서 확정 전반 운용 체계 믿음 검증 및 숙달 한편 수중 발사장 탄도미싸 발사 능력 숙련 시키 신속 반응 태세 검열 데</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1912,16 +1912,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>111</v>
+        <v>431</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>3117</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>미제 핵무기 휘두르 달려들 조건 외교 방법 이나 호소 로써 나라 자주 권 안전 사회주의 제도 고수 ᆫ다는 는다</t>
+          <t>미국 다른 나라 처럼 군사 위협 우리 굴복 시키 있 생각 ᆫ다면 보다 더 크 오산 없</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1932,16 +1932,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>564</v>
+        <v>245</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4070</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>미제 괴뢰군 부가 작전 계획 작전 계획 북침 공격 작전 준비 완비 놓 현대 공격 수단 방어 수단 다 갖추 우리 혁명 무력 무자비 보복 타격 두렵 감히 전쟁 불 지르 못하 달리 설명 길 는가</t>
+          <t>경제 건설 핵무력 건설 병 진로 선 세계 제일 방대하 핵무기 보유 으면서 항시 우리 공화국 핵으로 위협 공갈 미제 추종 세력 로부터 나라 민족 최고리익 수호 가장 정당 유일 선택 였</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1952,16 +1952,16 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>291</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>미국 조선반도 정세 끊임없이 긴장 시키 핵위협 공갈 도수 날로 높이 현실 우리 핵억제력 강화 조치 가 얼마나 정당 ᆫ가 실증</t>
+          <t>그러나 우리 공화국 미국 어떤 핵공갈 끄떡 는다</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -1972,16 +1972,16 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>176</v>
+        <v>640</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>15019</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>날로 로 골 더욱 무모 미제 군사 도발 망 동 가뜩이나 첨예 조선반도 정세 핵전쟁 접경 더 바싹 몰 가</t>
+          <t>간과 없 같이 태평양 너머 벌어지 오커스 우두머리 모의 판 조선민주주의인민공화국 겨냥 목소리 울리 나오</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -1992,16 +1992,16 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>141</v>
+        <v>598</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>10202</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>성명 핵무기 전파 방지 조약 탈퇴 우리 공화국 미국 압살 책동 추종 국제 원자력 기구 부당 처사 응당 자위적 조치 라고 강조 우리 핵무기 전파 방지 조약 탈퇴 핵무기 만드 의사 없 으며 현 단계 우리 핵활동 오직 전력 생산 비롯 평화 목적 국한 라고 지적</t>
+          <t>인민 군대 최 정예 강 군 사업 계속 박차 가하 어떤 형태 위협 불의 사태 국가 방위 주체 로서 사명 역할 다 있 도록 철저히 준비 시키 ᆸ니다</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2012,36 +2012,36 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>1473</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>우리 나라 미제 핵선제공격 기도 더욱 로 골 상황 우리 최대 주목 돌리 말 ᆫ단 대응 태세 갖추 없</t>
+          <t>우리 전쟁 반대</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>notsword</t>
+          <t>sword</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>264</v>
+        <v>653</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>15023</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>우리 당 국가 사회주의 조선 새해 행군 길 명시 미국 추종 세력 핵위협 공갈 계속 한 그리고 우리 문전 앞 년례 감투 쓰 전쟁 연습 소동 걷어치우 핵무력 중추 자위적 국방력 선제 공격 능력 계속 강화 나가 원칙 적립 장 공식 천명</t>
+          <t>악화 조선반도 안전 환경 전망 군사 위협 대처 보다 발전 선진 강 위력한 무기 체계 개발 지속 빠르 다그치 우리 당 공화국 정부 일관 립 장 라고 시 새 형 대륙 간 탄도 미 싸이 화성 포 형 개발 우리 전략 억제력 구성 부분 크 재편 시키 핵반격 태세 효용 급진전 시키 공세 군사 전략 실용 변혁 시키 라고 의의 긍지 높이 말씀 시</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2052,16 +2052,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>673</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>우리 최종 목표 조선 반도 우리 일방 무장 해제 이어지 비핵 가 조미 적대 관계 청산 조선반도 주변 모든 핵위협 근원 제거 비핵화</t>
+          <t>선택 권 미국</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2072,16 +2072,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>375</v>
+        <v>530</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>따라서 그것 조선반도 평화 안전 강력 정의 롭 방패</t>
+          <t>조선 외무성 대변인 담화 조선 핵시험 어떤 국제법 저촉 정정당당하 자위 조치 미국 조선 핵선제 타격 대상 명단 올리 지 오래 미국 가증 핵위협 핵억제력 대처 지극히 당연 정당방위 조치 지적</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2092,16 +2092,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>518</v>
+        <v>164</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3771</t>
+          <t>703</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>늦 감 이제 라도 미국 대담 정책 전환</t>
+          <t>우리 대화 평화 향하 시대 흐름 고수 민족 자주권 온 겨레 안녕 지키 서 군 기치 더욱 높이 들 자위적 국방력 백방 다지 나가</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2112,16 +2112,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>733</v>
+        <v>704</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2133</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>제국주의자 인민 자주 권리 참되 삶 철저히 보장 우리 공화국 인권 문제 끄 들 우리 존엄 자주 권 참 없 모독 훼손 부당 이중 기준 적용 극치</t>
+          <t>기에 세상</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2132,16 +2132,16 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>549</v>
+        <v>292</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3893</t>
+          <t>2265</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>그이 께서 조선 혁명 무장 력 미제 핵공갈 무자비 핵공격 침략 전쟁 정의 전면 전쟁 대답 라고 강조 시</t>
+          <t>조선인민군 창건 돐을 맞 으며 건 군 사상 최대 규모 진행 조선인민군 군종 합동 타격 시위 분별 없이 날뛰 미제 추종 세력 감히 움쩍 ᆫ다면 상상 없 선제 타격 침략 본거지 초토 버리 백두산 총대 징벌 불 소나기</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2152,16 +2152,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>453</v>
+        <v>538</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>핵억제력 못 가지 나라 제도 전복 노리 적대 세력 군사 간섭 책동 례외 없이 녹 나 현 세기 엄연 현실</t>
+          <t>가 터지 나오</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2172,16 +2172,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>485</v>
+        <v>13</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>그러면 다지 다지 오 핵전략 무기 악 소굴 미국 땅덩어리 지구 상 흔적 없이 날리 보내</t>
+          <t>우리 공화국 미국 핵선제공격 기도 현 미 행정부 시기 오 더욱 로골화되</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2192,16 +2192,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>363</v>
+        <v>476</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2793</t>
+          <t>3352</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>우리 공화국 위대 김정일 동지 경애 김정은 동지 선 군령 도 의하 불 패 핵강국 최 정예 군사 강국 위용 떨치 세기 에 세기 잇 미국 전면 대결 전 련 전 련 승</t>
+          <t>괴뢰 망 동 우리 무진 막강 군사 위력 앞 공포 느끼 자 히스테리 발작 으로서 남조선 날로 고조 안보 불안 을 눅잦히고 우리 비하 저 전략 리 세 만회 보 려는 부질없 발악 라고 론 평 다음 같이 강조</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2212,16 +2212,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>682</v>
+        <v>429</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2793</t>
+          <t>3117</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>미국 우리 공화국 전략 지위 대세 흐름 외면 저 의 조선 전쟁 도발 길 나가 ᆫ다면 항복 서 도장 찍 놈 없이 종국 멸망 면 못하</t>
+          <t>조미 사이 핵문제 대화 평화 방법 해결 려는 우리 원칙 적립 장 일관</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2232,16 +2232,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3203</t>
+          <t>2333</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>우리 미국 가지 그 어떤 선택 수단 다 대응 있 충분 능력 가지 핵강국 미국 어떤 선택 피하</t>
+          <t>경애 최 고령 도자 동지 께서 핵무기 병기 높 수준 실현 우리 공화국 핵공격 능력 비상 히 강화 투쟁 현명 이끌 시 데</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2252,16 +2252,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>62</v>
+        <v>705</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>2326</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>우리 더욱 엄중 시 미국 핵무기 선제 사용 교리 첫째 가 목표 다르 ᆷ 우리 공화국</t>
+          <t>우리 베이징 회담 명백하 립 장 밝히 뿐</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2272,16 +2272,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>244</v>
+        <v>454</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>3216</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>경애 최 고령 도자 동지 께서 만나 헤치 시 핵보유 대업 이룩 시 위대 수령 님 불멸 업적 계승 경제 건설 핵무력 건설 병진 우리 당 국가 전략 로 선 제시 시 ᆷ 으로써 기존 핵리 강 중심 국제 정치 구도 깨 버리 시 세계 정치 지형 근본 변화 시키 시 으며 우리 공화국 누구 건드리 없 최 강국 존엄 떨치 시</t>
+          <t>세계 최대 핵보유국 미국 우리 적대 시 한 우리 절대로 핵억제력 먼저 내놓 없</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2292,16 +2292,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>676</v>
+        <v>61</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3854</t>
+          <t>291</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>더우기 이번 해상 련 합 훈련 미제 괴뢰 조작 내 모략 함선 침몰 사건 북남 관계 극도 악화 조선반도 긴장 상태 어느 보다 격화 감행 위험 더욱 크</t>
+          <t>오늘 세계 언제 어느 나라 미국 핵공격 받 을지 모르 위험 상태 빠지 새롭 국제 핵군비 경쟁 터지 있 심각 사태 조성</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2312,16 +2312,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>58</v>
+        <v>644</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>15019</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>리 미국 기술 전쟁 상태 상황 미국 대조선 핵선제공격 기도 어느 순간 실전 ᆯ지 가늠 없</t>
+          <t>이것 오커스 잠수함 중국 남해 든 조선반도 수역 든 미국 패권 지위 유지 데 필요 임의 장소 출몰 시사</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2332,16 +2332,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>742</v>
+        <v>247</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>6252</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>올해 투쟁 우리 조국 민족 존엄 위용 떨치 데 서 획기 의의 가지 투쟁 강성대국 건설 결정 돌파구 열 놓 매우 책임 투쟁</t>
+          <t>우리 어떤 위협 놀라 으며 어떤 대결 도피 는다</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2352,16 +2352,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>1</v>
+        <v>606</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13815</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>미국 다음 번 핵전쟁 계획 남조선 전초 기지</t>
+          <t>미국 군사 간섭 도수 높이 높이 ᆯ수록 우리 역시 자위적 억제력 강화 길 나가 리라는 누구 나 명백</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2372,16 +2372,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>226</v>
+        <v>497</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>핵무력 사명 우선 그런 전쟁 말려들 자는 기본 일단 전쟁 상황 라면 사명 타방 군사력 일거 제거 바뀌</t>
+          <t>리명박패 당 인민 목소리 귀 기울이 대량 살상 무기 확산 방지 구상 전면 참가 철회 동족 대결 책동 걷어치우</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2392,16 +2392,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>382</v>
+        <v>139</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2901</t>
+          <t>622</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>미국 괴뢰패 당 우리 핵억제력 시비 질 어떻 나 제거 보 려고 최후 발악 핵억제력 나라 민족 발전 번영 평화 환경 안정 조건 보장 최고 방위 수단 뚜렷이 확증</t>
+          <t>미국 선의 가지 우리 우리 대등 행동</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2412,16 +2412,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>493</v>
+        <v>122</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3622</t>
+          <t>531</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>핵보유국 핵시험 자연 스럽</t>
+          <t>그것 억만금 바꾸 없 민족 생명 통일 조선 국보</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2432,16 +2432,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>나라 민족 존엄 긍지 우리 자위적 핵억제력 미국 졸개 박근혜 패 당 입 올리 가소 롭 그지없 망 동 으로서 절대로 용납 없</t>
+          <t>고 지나 시기 미국 만드 여러 종류 핵탄 가운데 서 직경 cm Mark 무게 kg 북 핵탄 보다 더 가볍 라고 평가</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2452,16 +2452,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>311</v>
+        <v>214</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>존엄 높 자주 독립 국가 핵강국 우리 나라 통채 파괴 버리 세상 통채 없애 버리 극단주의 망 동 없 습니다</t>
+          <t>미국 대조선 적대 시 정책 핵위협 근원 청산 한 어떤 경우 핵탄도 로케트 협상 탁 올려놓 이미 선택 핵무력 강화 길 치 물러서 우리 공화국 립장 조금 변하 ᆷ 없</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2472,16 +2472,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>미국 강력 핵타격 수단 보유 조선 경고 심 중 히 받아들이</t>
+          <t>처럼 우리 공화국 핵시험 떠민 미국 리명박패 당</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2492,16 +2492,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>347</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>경애 김정은 동지 께서 지금 미제 남조선 괴뢰 우리 눈앞 숱하 핵전략 자산 끌어들이 공화국 핵선제공격 합동 군사 연습 강행 심히 우리 자극 데 엄중히 경고 시 우리 이제 미국 핵패권 맞서 있 실질 수단 다 갖추 조건 일단 기회 조성 우리 인민 정의 핵마치 폭제 핵무자비 내려치 부 정의 못 다시 솟아나 못하 라고 말씀 시</t>
+          <t>트럼프 행정부 우리 공화국 극악 무도 제재 압박 군사 위협 책동 매달리 전술 핵무기 문제 여론 조선 반도 실제 핵전쟁 발 예고 극히 위험 움직임</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2512,16 +2512,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>714</v>
+        <v>540</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>평화 길 통일 번영 길</t>
+          <t>막 힘 넘치</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2532,16 +2532,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>642</v>
+        <v>364</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>15019</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>고 오커스 필요 정당 으며 미 국무성 고위 관리 오커스 평화 안정 기여 라고 중국 로 씨 야 북조선 너머 제기 도전 증가</t>
+          <t>우리 미국 극단 대조선 적대 시책 동 핵위협 맞서 막강 자위적 핵억제력 보유 으며 조성 정세 요구 맞 그것 질량 더욱 억척 같이 다지 나가</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2552,16 +2552,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>2130</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>국가 핵무력 건설 전 초선 서 핵전투 원 답 위력한 핵무기 더 빨리 더 많이 생산 으로써 당 혁명 억척 같이 보위 나가 불타 충정 결의 다지 였</t>
+          <t>조선 월 미국 추종 세력 이미 거덜 나 유엔 제재 따위 또다시 매달리 끄떡없 이 중장거리 전략 탄도 로케트 화성 형 전력 실현 우리 최종 목표 바로 미국 실제 힘 균형 이루 ᆷ 각인 시키</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2572,36 +2572,36 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>122</v>
+        <v>635</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>15018</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>그것 억만금 바꾸 없 민족 생명 통일 조선 국보</t>
+          <t>미국 위시 호 전광 군사 도발 행위 도 넘어서 현실 우리 국방력 보다 명백하 립 장 대답 기다리</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>notsword</t>
+          <t>sword</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>695</v>
+        <v>569</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>15016</t>
+          <t>4734</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>미국 이번 훈련 연장선 상 다음 주 월 부산 작전 기지 기여 든 미 해군 핵항공 모함 니미쯔 호 포함 조선 동 해상 미일 남조선 괴뢰 자해 상 무력 참가 련 합 해상 훈련 획책</t>
+          <t>온 세계 들끓 날 환희 아직 기억 속 생생 ᆫ데 오늘 공화국 마침내 어떤 강적 감히 범접 못 강력 전쟁 억제력 갖추 당당 강국 으니 격정 무슨 다 표현 있 는가</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2612,16 +2612,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>300</v>
+        <v>14</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2271</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>공화국 정부 핵억제력 미국 핵위협 책동 저지 시키 세계 비 핵실현 노력 오 으며 앞 계속 노력</t>
+          <t>이 전 행정부 시기 진행 여 오 우리 모든 대화 협상 중단 버리 초 발표 년두교서 우리 나라 악 축 규정 으며 해 월 핵선제공격 대상 명단 우리 나라 올려놓</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2632,16 +2632,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>191</v>
+        <v>400</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>로동신문 핵공격 능력 강화 누구 시비 거리 없 heading</t>
+          <t>조선인민군 전략군 월 중순 괌 포위 사격 방안 최종 완성 공화국 핵무력 총사령관 동지 께 보고 드리 발사 대기 태세 명령 기다리 라고 발표</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2652,16 +2652,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>150</v>
+        <v>458</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>3216</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>미국 호전 집단 이미 핵태세 검토 보고서 핵선제공격 대상국 개 나라 선정</t>
+          <t>일방 타방 적대 시 평등 관계 마주 앉 진정 대화 이루어지 있 으며 서로 관심사 모든 문제 해결 가능 있</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2672,16 +2672,16 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>181</v>
+        <v>682</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>주체 조선 긍지 자랑 자위적 핵무력 괴뢰패 당 고철 덩이 불과 싸드 따위 감히 흥정 려 들 이야말로 상대 모르 저 푼수 모르 얼 가 망둥이 정신 나가 넉두리 불과</t>
+          <t>미국 우리 공화국 전략 지위 대세 흐름 외면 저 의 조선 전쟁 도발 길 나가 ᆫ다면 항복 서 도장 찍 놈 없이 종국 멸망 면 못하</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2692,16 +2692,16 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>84</v>
+        <v>351</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>2660</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>날로 악랄 미국 가증 핵위협 우리 하여금 전술 핵무기 포함 모든 대응 수단 최고 수준 순간 멈추 ᆷ 없이 최대 속도 개발 실전 배 비 다그치 데 떠밀</t>
+          <t>김정은 령 도자 께서 신년사 핵탄두 탄도 로케트 대량 생산 실전 배치 사업 박차 가하 나가 호소 시 UPI 통신 보도</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2712,16 +2712,16 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>306</v>
+        <v>667</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>15029</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>국제 사회 계 또한 핵무기 전파 방지 조약 탈퇴 잇 핵시설 가동 재개 데 우리 자위적 조치 두 이것 이야말로 조선 식 위대 선군정치 기치 무엇 구애 민족 존엄 자주 권 수호 길 나아가 조선 자주 정당 립 장 천명 가장 옳 바르 조치 라고 평</t>
+          <t>정은 각하 현명 령 조선 불패 핵강국 그 어떤 적 단매 치 부시 있 세계 군사 강국 위용 떨치 기네주체 문학 사상 연구회 회장 브라질 선군정치 연구 쎈터 위원장 정의 핵제국주의 대결 조선 승리 확정 라고 강조</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2732,16 +2732,16 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2144</t>
+          <t>622</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>경제 건설 핵무력 건설 병 진로 선 자위적 핵무력 천 백 배 강화 반 미 대결 전 총 결산 땅 우 천하 제일 강국 인민 락 원 하루빨리 일 뜨 세우 려는 우리 확고부동 신념 의지 결정체 민족 존엄 통일 번영 숭고 애국 애족 기치</t>
+          <t>그러나 미국 우리 얕잡 보 계속 군사 압력 핵위협 소동 벌리 전쟁 길 나가 ᆫ다면 우리 역시 초 강경 군사 조치 대응</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2752,16 +2752,16 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>395</v>
+        <v>643</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>15019</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>우리 민족</t>
+          <t>고 력설</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2772,36 +2772,36 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2664</t>
+          <t>531</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>우리 민족 틀어쥐 핵보검 날로 가증 미국 침략 핵전쟁 도발 책동 제압 전체 조선 민족 운명 천만 미래 굳건히 담보 으며 북남 관계 우리 민족 끼리 해결 나가 있 밝 전망 열</t>
+          <t>론설 공화국 핵억제력 강화 조치 미국 가증 핵위협 전쟁 막 평화 보장 나라 안전 자주 권 지키 취하 라고 다음 같이 지적</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>notsword</t>
+          <t>sword</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>291</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>미국 우리 나라 핵위협 걸 현대 전략 공격 무기 개발 증강 열 올리 조건 대응 우리 전쟁 억제력 배가 강화 지극히 당연 따라서 그것 누구 시비 거리 없</t>
+          <t>이것 우리 나라 갖은 허물 다 뒤집어씌우 대조선 압살 정책 실천 옮기 술책</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2812,16 +2812,16 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3771</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>최근 정치 전문 웨브 싸이트 더 힐 경제 전문 방송 CNBC 비롯 미국 언론 전 고위 관리 국제 문제 전문가 조선 핵포기 불 가능 조선 핵보유국 인정 ᆫ다고 주장 데 전하</t>
+          <t>약자 앞 잔인 포악 강자 앞 비굴 놀 대 미제 오직 강력 핵억제력 맞서 상책</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2832,16 +2832,16 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>408</v>
+        <v>99</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2983</t>
+          <t>391</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>로 평 조선 핵보유 미국 오래 동안 강행 오 극악 대조선 적대 시 정책 낳 필연 귀결 라고 다음 같이 강조</t>
+          <t>그러 시 이번 진행 실전 훈련 임의 전술 핵운용 부대 전쟁 억제 전쟁 주도 권 쟁취 막중 군사 임무 부과 있 확신 더욱 확고히 가지 시 우리 전쟁 억제력 가동 태세 검증 동시 국가 핵방어 태세 철저 준비 상태 신뢰성 증명 계기 적 우리 핵대응 태세 핵공격 능력 알리 분명 경고 명백 과시 ᆫ다고 말씀 시</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2852,16 +2852,16 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>731</v>
+        <v>283</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>9273</t>
+          <t>2216</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>세기 표본 공장 희천련하 기계 종합 공장 CNC 기계 바다 펼치</t>
+          <t>우리 공화국 핵억제력 미국 대조선 핵선제공격 막 나라 자주 권 사회주의 평화 안전 믿 음직 수호 자위적 정당 방위 수단 위력한 담보</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2872,16 +2872,16 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>701</v>
+        <v>561</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3004</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>개 꼬리 삼 가 어도 황 모 못 되 ᆫ다고 남조선 보수 패 당 반 통일 체질 악습 절대로 달라지</t>
+          <t>자주권 귀중히 여기 민족 존엄 번영 노력 나라 날로 악랄 파렴치 감행 미제 정보 조작 모략 책동 경각 높이 대처 자위적 국방력 강화 는데 응당 힘 기울이</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2892,16 +2892,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>501</v>
+        <v>657</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>3696</t>
+          <t>15026</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>우리 공화국 미제 침략 야망 결정 종식 시키 대륙 간 탄도 로케트 수소탄 보유 세계 군사 강국 지위 당당히 올라서</t>
+          <t>명백히 건데 누구 로부터 인정받 가 철두철미 미국 위협 으로부터 자기 방어 부득불 핵가지 였 다는데 우리 핵보유 본질 있</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2912,16 +2912,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>443</v>
+        <v>248</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3148</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>북녘 동포 김정일 국방 위원장 서거 애도 땅 치 통곡 절대로 실망 좌절 리유 바로 김정은 후계자 튼튼히 존재 우리 민족 집어삼키 려는 제국주의 세력 물리치 강성대국 건설 민족 평화 통일 과업 능히 이루 내 ᆷ 굳 믿</t>
+          <t>미싸 일 미싸 핵핵 무엇 주저 없이 맞서 싸우 우리 반드시 이기</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2932,16 +2932,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>526</v>
+        <v>639</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>3854</t>
+          <t>15019</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>얼마 전 조선민주주의인민공화국 국방위원회 미제 남조선 괴뢰 강행 사상 최대 규모 핵전쟁 연습 소동 우리 강력 핵억제력 당당히 맞서 나가 필요 임의 시기 핵억제력 기초 우리 식 보복 성전 개시 엄숙히 천명</t>
+          <t>현실 미국 입버릇 처럼 외우 대 국제 핵전파 방지 제도 미국 동맹 세력 독점 핵무 장화 보강 도구 보이</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2952,16 +2952,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>640</v>
+        <v>204</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>15019</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>간과 없 같이 태평양 너머 벌어지 오커스 우두머리 모의 판 조선민주주의인민공화국 겨냥 목소리 울리 나오</t>
+          <t>우리 남조선 호전 광 외세 야합 우리 군사 심히 위협 핵전쟁 발발 위험 극도 증대 시키 절대로 용납 없</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -2972,16 +2972,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>61</v>
+        <v>693</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>15019</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>오늘 세계 언제 어느 나라 미국 핵공격 받 을지 모르 위험 상태 빠지 새롭 국제 핵군비 경쟁 터지 있 심각 사태 조성</t>
+          <t>그렇 ᆷ 불구 미국 영국 오스트랄리 알 저 거래 잠수함 결코 핵탄두 미 싸 장착 잠수함 므로 국제 핵전파 방지 제도 위해 가 는다고 한사코 우기</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -2992,16 +2992,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>183</v>
+        <v>664</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>971</t>
+          <t>15026</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>우리 핵미국 하내비 라고 어도 절대로 흥정 대상 없 괴뢰패 당 똑똑히 알 여기저기 싸다니 북핵 타령 보 댔자 공연 헛 수고 명심 좋</t>
+          <t>우리 G 추호 관심 가지 만일 조선민주주의인민공화국 자주권 근본 리 익 침해 려는 어떤 행동 기도 보이 경우 강력 대응 철저히 불허 명백히</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3012,16 +3012,16 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>552</v>
+        <v>408</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3965</t>
+          <t>2983</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>통보 문 우리 로케트 발사 금지 유엔 안보리 사회 결의 자체 유엔 헌장 국제법 위반 미국 전략 자산 조선반도 주변 계속 끌어들이 로 골 핵위협 가하 데 대응 핵억제력 강화 조치 련 속 취하 나가 우리 정정당당하 자위 조치 로서 어떤 도발 없 립 장 표명</t>
+          <t>로 평 조선 핵보유 미국 오래 동안 강행 오 극악 대조선 적대 시 정책 낳 필연 귀결 라고 다음 같이 강조</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3032,16 +3032,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>459</v>
+        <v>374</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>2844</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>우리 미국 평화 협정 체결 문제 풀 방법 조선반도 전쟁 화근 송두리 채 들어내 여 항구 평화 실현 방법 있</t>
+          <t>조선 핵억제력 보유 바로 나라 자주 권 수호 목적 으로부터 출발</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3052,16 +3052,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>621</v>
+        <v>371</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>15014</t>
+          <t>2822</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>미국 전대미문 압살 봉쇄 속 자력 자강 정신 실현</t>
+          <t>미국 지나 시기 같이 조선반도 정세 저 의도 대로 흘러가 저 마음 대로 조종 있 생각 ᆫ다면 보다 크 오산 없 알</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3072,16 +3072,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>15026</t>
+          <t>15029</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>우리 완전 되돌리 없 핵포기 설교 핵무기 전파 방지 조약 핵보유국 지위 가지 없 운운 이야말로 조선민주주의인민공화국 신성 국법 어기 강요 가장 황당무계 불법 무도 내정 간섭 행위</t>
+          <t>여러 나라 인사 자위적 핵강국 기상 더 높이 떨치 강조</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3092,16 +3092,16 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>194</v>
+        <v>546</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>우리 상 용 무기 의하 전쟁 든 핵전쟁 든 싸이 버전 든 미제 원하 어떤 전쟁 방식 다 상대 그런 힘 있</t>
+          <t>미국 조선 측 거듭 경고 불구 전략 폭격기 B 련 잇 남조선 상공 들 이민 성차 미주리주 와이트맨 공군 기지 있 스텔스 전략 폭격기 B A 새롭 남조선 상공 진입 시키 조선 겨냥 지상 목표 타격 훈련 공공연히 벌리 였</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3112,16 +3112,16 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>40</v>
+        <v>747</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>여러 나라 언론 전문가 우리 핵탄두 함께 운반 수단 기술 발전 시키 핵타격 수단 다종 정밀 고 성능 실현 주력 오 적 커다랗 전 률 공포 안기 전략 잠수함 탄도탄 수중 시험 발사 신형 대 구경 방사포 시험 사격 탄도 로케트 대기 권 재 돌입 환경 모의 시험 대 출력 고체 로케트 발동기 지상 분출 및 계단 분리 시험 비상 관심 표시</t>
+          <t>특히 한나라당 지나 대선 대 기업 협박 수천억 달하 천문학 액수 선거 자금 차 판 떼 내</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3132,16 +3132,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>2216</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>경제 건설 핵무력 건설 병 진로 선 세계 제일 방대하 핵무기 보유 으면서 항시 우리 공화국 핵으로 위협 공갈 미제 추종 세력 로부터 나라 민족 최고리익 수호 가장 정당 유일 선택 였</t>
+          <t>우리 공화국 핵억제력 갖추 리유 미국 선제공격 억제 자는</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3152,16 +3152,16 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>603</v>
+        <v>328</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>13815</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>사실 상 우리 나라 미국 군사 위협 년대 년대 세 기와 세기 잇 오 끊임없이 가하</t>
+          <t>리명박 역도 연설 우리 핵억제력 강화 조치 무슨 평화 위협 라고 생 트집 걸 감히 누구 핵포기 운운 는가 미국 핵우산 남조선 확실히 보호</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3172,16 +3172,16 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>622</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>미국 괴뢰패 당 우리 핵선제 타격 기도 로골 조건 핵억제력 질량 강화 나가 ᆫ다는 누구 나 명백</t>
+          <t>미국 자국 안보 걱정 덜 려면 우리 군사 압살 정책 버리 상책</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3192,16 +3192,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>349</v>
+        <v>103</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2642</t>
+          <t>408</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>리명박패 당 외세 의존 동족 대결 책동 발광 ᆯ수록 그것 우리 군대 인민 자위적 핵억제력 백방 강화 길 떠밀</t>
+          <t>핵무기 보유 선포 핵시험 전제</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3212,16 +3212,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>559</v>
+        <v>133</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>4034</t>
+          <t>622</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>미 호전 세력 우리 나라 그러 수법 적용 려</t>
+          <t>그런데 미국 우리 이러 대응 방식 저 위협 생 억지 부리 우리 반대 침략 전쟁 도발 구실 써먹 으려</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3232,16 +3232,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>745</v>
+        <v>579</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>3667</t>
+          <t>5652</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>특히 한나라당 지나 대선 대 기업 협박 수천억 달하 천문학 액수 선거 자금 차 판 떼 내</t>
+          <t>미국 나날이 장성 강화 우리 전략 지위 국력 막 힘 없</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3252,16 +3252,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>555</v>
+        <v>205</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>적 무 분별 침략 전쟁 연습 준 전시 상태 선포 대답 핵특별 사찰 소동 핵무기 전파 방지 조약 단호 탈퇴 맞서 핵선제공격 위협 강력 핵억제력 대응 바로 이것 우리 장군 님 과감하 백두산 공격 정신</t>
+          <t>미국 괴뢰 호전 광 섶 지 불 속 뛰여드 우둔 모험 말</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3272,36 +3272,36 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>126</v>
+        <v>446</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>3203</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>론설 누구 뭐 라고 든 미국 우리 핵계속 위협 한 우리 경제 건설 핵무력 건설 병진 시키 데 전략 로 선 튼튼히 틀어쥐 나가 라고 강조</t>
+          <t>우리 미국 가지 그 어떤 선택 수단 다 대응 있 충분 능력 가지 핵강국 미국 어떤 선택 피하</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>notsword</t>
+          <t>sword</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>448</v>
+        <v>84</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>3206</t>
+          <t>347</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>우리 공화국 동방 핵강국 지위 우뚝 올리 세우 력사 쾌거 반만년 민족사 특기 일대 사변 였</t>
+          <t>날로 악랄 미국 가증 핵위협 우리 하여금 전술 핵무기 포함 모든 대응 수단 최고 수준 순간 멈추 ᆷ 없이 최대 속도 개발 실전 배 비 다그치 데 떠밀</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3312,16 +3312,16 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>366</v>
+        <v>46</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2809</t>
+          <t>189</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>조선민주주의인민공화국 미국 조선 자기 핵무력 철수 시키 ᆫ다면 핵개발 그만두 있 으며 조미 관계 조정 응하 있</t>
+          <t>미국 별의별 재간 다 부리 우리 나라 핵범인 몰아붙이 려 어도 그것 부질없 가소롭 짓</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3332,16 +3332,16 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>665</v>
+        <v>416</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>15026</t>
+          <t>3026</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>기회 조선민주주의인민공화국 핵무기 전파 방지 조약 제 조 밝히 탈퇴 절차 년 전 벌써 상기 조약 합법 탈퇴 ᆷ 으로써 어떤 조약 상 의무 로부터 자유 롭 G 외무상 다시 한번 정중히 상기 시키 바</t>
+          <t>성능 높 원자탄 의하 우리 이번 대응 주권 국가 자주 권 존엄 수호 조선반도 반세기 이상 걸치 미국 핵위협 억제 평화 안정 이룩 최상 합리 선택</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3352,16 +3352,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>64</v>
+        <v>338</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>이러 미국 최근 오 우리 공화국 생물무기 비롯 대량 살 륙 무기 개발 지하 갱도 속 감추 터무니없이 걸 들</t>
+          <t>조선반도 평화 안전 우리 강 위력한 핵억제력 의하 아직 모르 리명박 따위 주제 넘 평화 너덜 대 이야말로 가소롭 그지없</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3372,16 +3372,16 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>8</v>
+        <v>296</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>2271</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>조선반도 비 핵우리 공화국 정부 시종일관 립 장</t>
+          <t>얼마 전 성공 진행 핵탄두 폭발 시험 우리 국가 자위적 권리 행사 악랄 걸 들 미국 비롯하 적대 세력 위협 제재 소동 실제 대응 조치 일환 으로서 적 우리 건드리 ᆫ다면 우리 맞받아치 준비 가 여 우리 당 인민 초 강경 의지 과시</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3392,36 +3392,36 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>581</v>
+        <v>622</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>5769</t>
+          <t>15014</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>만일 미국 추종 세력 우리 정당 자위 권 행사 구실 감히 북침 핵전쟁 도발 ᆫ다면 우리 군대 인민 다지 다지 오 무진 막강 힘 총 발동 도발 자 모조리 격멸 소탕 조국 통일 력사 숙원 기어이 성취 야 말 라고 론설 강조</t>
+          <t>우리 틀어쥐 정의 핵마치 폭제 핵무자비 내려치</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>notsword</t>
+          <t>sword</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>231</v>
+        <v>370</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>2822</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>만약 미제 감히 우리 공화국 전쟁 걸 오 ᆫ다면 침략자 결코 타협 모르 미제 멸망 선언 열의 충만 여 신념 강자 대결</t>
+          <t>오늘 조선반도 운명 발전 조종간 주인 우리 민족 손 확고히 쥐이</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3432,16 +3432,16 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>739</v>
+        <v>710</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>10324</t>
+          <t>3458</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>판문점 수뇌 상봉 회담</t>
+          <t>괴뢰 외세 공조 우리 어쩌 보 려는 어리석 망상</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
